--- a/regions/7/garemos dacva/garemos dacva.xlsx
+++ b/regions/7/garemos dacva/garemos dacva.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="რაჭა-ლეჩხუმი და ქვემო სვანეთი" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>მათ შორის:</t>
   </si>
@@ -75,56 +75,6 @@
     <t>დაჭერილი (ათასი ტონა)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ტყის ფონდის ფართობი* - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>282</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ათასი ჰექტარი</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">აქედან, ტყით დაფარული ფართობი* - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>268</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ათასი ჰექტარი</t>
-    </r>
-  </si>
-  <si>
     <t>ტყის ჭრით მიღებული ხე-ტყის მოცულობა* (კუბური მეტრი)</t>
   </si>
   <si>
@@ -157,6 +107,12 @@
   <si>
     <t>პირობითი აღნიშვნა:</t>
   </si>
+  <si>
+    <t>ტყის ფონდის ფართობი* - 268 ათასი ჰექტარი</t>
+  </si>
+  <si>
+    <t>აქედან, ტყით დაფარული ფართობი* - 255 ათასი ჰექტარი</t>
+  </si>
 </sst>
 </file>
 
@@ -246,13 +202,6 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="9"/>
@@ -261,6 +210,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
@@ -279,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -307,21 +264,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -356,35 +304,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -691,71 +633,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.85546875" style="2" customWidth="1"/>
-    <col min="2" max="7" width="10.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="68.88671875" style="2" customWidth="1"/>
+    <col min="2" max="7" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="10">
         <v>2013</v>
@@ -781,10 +729,16 @@
       <c r="I5" s="10">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="10">
+        <v>2021</v>
+      </c>
+      <c r="K5" s="10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="11">
         <v>54165</v>
@@ -810,10 +764,16 @@
       <c r="I6" s="11">
         <v>39313</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="11">
+        <v>35398.400000000001</v>
+      </c>
+      <c r="K6" s="11">
+        <v>47364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11">
         <v>268</v>
@@ -839,8 +799,14 @@
       <c r="I7" s="11">
         <v>1611</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="11">
+        <v>3423.8</v>
+      </c>
+      <c r="K7" s="11">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -868,8 +834,14 @@
       <c r="I8" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -897,8 +869,14 @@
       <c r="I9" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -911,36 +889,44 @@
       <c r="D10" s="8">
         <v>0.5</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="8">
         <v>0.3</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="8">
         <v>0.3</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="8">
         <v>0.6</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="8">
         <v>0.6</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -953,23 +939,29 @@
       <c r="D12" s="8">
         <v>0.4</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="8">
         <v>0.2</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="8">
         <v>0.2</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="8">
         <v>0.5</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="8">
         <v>0.5</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
@@ -982,98 +974,109 @@
       <c r="D13" s="9">
         <v>0.1</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="9">
         <v>0.1</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="9">
         <v>0.1</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="9">
         <v>0.1</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="9">
         <v>0.1</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="9">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="J13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/regions/7/garemos dacva/garemos dacva.xlsx
+++ b/regions/7/garemos dacva/garemos dacva.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="რაჭა-ლეჩხუმი და ქვემო სვანეთი" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>მათ შორის:</t>
   </si>
@@ -313,6 +313,12 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -320,13 +326,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -633,77 +633,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.88671875" style="2" customWidth="1"/>
-    <col min="2" max="7" width="10.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="68.85546875" style="2" customWidth="1"/>
+    <col min="2" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="10">
         <v>2013</v>
@@ -735,8 +741,11 @@
       <c r="K5" s="10">
         <v>2022</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -770,8 +779,11 @@
       <c r="K6" s="11">
         <v>47364</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="11">
+        <v>35645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -805,8 +817,11 @@
       <c r="K7" s="11">
         <v>791</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -840,8 +855,11 @@
       <c r="K8" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -875,8 +893,11 @@
       <c r="K9" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -910,8 +931,11 @@
       <c r="K10" s="8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
@@ -925,8 +949,9 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -960,8 +985,11 @@
       <c r="K12" s="8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
@@ -995,22 +1023,27 @@
       <c r="K13" s="9">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="L13" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
@@ -1023,8 +1056,10 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
@@ -1037,8 +1072,10 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>7</v>
       </c>
@@ -1051,8 +1088,10 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>13</v>
       </c>
@@ -1065,18 +1104,20 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
